--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4046,40 +4046,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.921875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.92578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.04296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="141.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="124.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.63671875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="124.6484375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="60.37109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
+++ b/StructureDefinition-cdm-explanation-of-benefit-for-analytics.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
